--- a/Excel/Vatsetup.xlsx
+++ b/Excel/Vatsetup.xlsx
@@ -760,7 +760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Excel/Vatsetup.xlsx
+++ b/Excel/Vatsetup.xlsx
@@ -114,9 +114,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>OCT</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>Discounts - Comp1</t>
+  </si>
+  <si>
+    <t>Nov</t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,196 +909,196 @@
         <v>24</v>
       </c>
       <c r="W1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AZ1" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="BA1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="CH1" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:86">
@@ -1151,211 +1151,211 @@
         <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="T2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="V2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="AL2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AM2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="AO2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AP2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AR2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AY2" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="AZ2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="BA2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="BB2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BD2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BD2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BI2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BL2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BP2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS2" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="BT2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="BU2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BV2" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="BW2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="BX2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="CB2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="CD2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="CE2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CF2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG2" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="CH2" s="7" t="s">
         <v>27</v>
